--- a/utilities/Excel_Sheets/Products/CYB_OMSNIC.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_OMSNIC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -502,10 +502,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -572,7 +572,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43322</v>
+        <v>43375</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1443,12 +1443,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECA41D3-4D47-4A99-AC7B-A9BC1B07580B}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD6"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1516,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>43322</v>
+        <v>43375</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -2282,12 +2283,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95438B47-EA8C-49F5-83EB-6D50EBB965F3}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
